--- a/Project2020/Tables/Building.xlsx
+++ b/Project2020/Tables/Building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670"/>
+    <workbookView windowWidth="24810" windowHeight="12810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Output</t>
   </si>
   <si>
+    <t>TechLevel</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -42,19 +45,40 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>类型,数量</t>
+    <t>材料ID,数量</t>
   </si>
   <si>
     <t>产品（对应Item）</t>
   </si>
   <si>
-    <t>锻造厂</t>
-  </si>
-  <si>
-    <t>1,2|2,1</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
+    <t>科技等级</t>
+  </si>
+  <si>
+    <t>Factory A</t>
+  </si>
+  <si>
+    <t>锻造厂A</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Factory B</t>
+  </si>
+  <si>
+    <t>锻造厂B</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>Factory C</t>
+  </si>
+  <si>
+    <t>锻造厂C</t>
+  </si>
+  <si>
+    <t>4,2</t>
   </si>
 </sst>
 </file>
@@ -62,18 +86,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="Microsoft JhengHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -81,15 +117,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -102,63 +148,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -179,16 +185,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,16 +224,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +240,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,47 +457,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,20 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +515,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,141 +574,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,74 +1041,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="9.70833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="4:6">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1184,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1109,7 +1201,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
